--- a/public/excel_files/masterlist-2014-12-09.xlsx
+++ b/public/excel_files/masterlist-2014-12-09.xlsx
@@ -20,7 +20,7 @@
     <t>Payroll Period</t>
   </si>
   <si>
-    <t>2015-02-02-2015-02-13</t>
+    <t>2015-02-16-2015-02-27</t>
   </si>
   <si>
     <t>Payroll Mode</t>
@@ -92,16 +92,16 @@
     <t>Juan Antonio Dela Cruz</t>
   </si>
   <si>
-    <t>12,000.00</t>
-  </si>
-  <si>
-    <t>6,000.00</t>
+    <t>10,000.00</t>
+  </si>
+  <si>
+    <t>5,000.00</t>
   </si>
   <si>
     <t>S0</t>
   </si>
   <si>
-    <t>1,749.55</t>
+    <t>4,645.83</t>
   </si>
   <si>
     <t>Human Resource Manager</t>
@@ -603,7 +603,7 @@
         <v>26</v>
       </c>
       <c r="F5">
-        <v>400</v>
+        <v>333.33</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -615,16 +615,16 @@
         <v>26</v>
       </c>
       <c r="J5">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
